--- a/biology/Botanique/Malephora/Malephora.xlsx
+++ b/biology/Botanique/Malephora/Malephora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malephora est un genre de plante de la famille des Aizoaceae, originaire de l'Afrique méridionale.
-Ce genre a été décrit par le botaniste britannique Nicholas Edward Brown, et publié dans The Gardeners' Chronicle, ser. 3 81: 12. 1927[1]. L'espèce type est: Malephora mollis (Aiton) N.E. Br. (Mesembryanthemum molle Aiton)
+Ce genre a été décrit par le botaniste britannique Nicholas Edward Brown, et publié dans The Gardeners' Chronicle, ser. 3 81: 12. 1927. L'espèce type est: Malephora mollis (Aiton) N.E. Br. (Mesembryanthemum molle Aiton)
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Malephora est composé de plantes pérennes. Les feuilles sont succulentes, lisses, parfois cireuses, jusqu'à 6 centimètres de longueur, de section transversale triangulaire ou arrondie, en disposition opposée.
 Les fleurs sont de forme tubulaire et poussent à l'aisselle des feuilles ou à l'extrémité des branches de la tige. Elles peuvent avoir plusieurs centimètres de largeur et jusqu'à 65 pétales étroits de couleur jaune, orange, rose ou pourpre. Le centre de la fleur présente des verticilles avec jusqu'à 150 étamines.
@@ -546,7 +560,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Malephora crassa (L.Bolus) H.Jacobsen &amp; Schwantes
 Malephora crocea (Jacq.) Schwantes
